--- a/Designs/DatabaseDesign/FirestoreSchema.xlsx
+++ b/Designs/DatabaseDesign/FirestoreSchema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Github\Year3\COMP3000-Computing-Project\Designs\DatabaseDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C421B36-80DE-40A6-9B91-C3B43A68CBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F40DEBD-29C8-4C2B-8675-85A8120A4DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39495" yWindow="2880" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,38 @@
     <t>Fields:</t>
   </si>
   <si>
+    <t>processing_queue</t>
+  </si>
+  <si>
+    <t>Auto-generated UID</t>
+  </si>
+  <si>
+    <t>Handles the "circuit breaker" and "Async" logic for uploaded files. Backend puts the jobs here; frontend watches the status.</t>
+  </si>
+  <si>
+    <t>audit_logs</t>
+  </si>
+  <si>
+    <t>Record of who did what</t>
+  </si>
+  <si>
+    <t>file_name: og_001.json,
+ upload_timestamp: Timestamp,
+ status: processing, // Options: pending, processing, completed, failed
+error_message: null, // Populated if parsing fails [Error Handling]
+ user_id: user_uid</t>
+  </si>
+  <si>
+    <t>actor_id: user_uid",
+action: resolved_incident, // or "deleted_log", exported_report
+ target_resource_id: incident_id,
+ timestamp: Timestamp,
+ metadata: { previous_status: new, new_status: resolved }</t>
+  </si>
+  <si>
     <t xml:space="preserve">status: open, // Options: open, investigating, resolved [FR15]
 severity: high, // Options: low, medium, high, critical [FR10]
-timestamp_detected: "imestamp,
+timestamp_detected: timestamp,
 source_ip: 192.168.1.50,
 attack_type: Brute Force, // Extracted by Parser
 summary: "Multiple failed login attempts detected...", // [FR6] From LLM
@@ -90,35 +119,6 @@
  raw_log_reference: C://bucket_name/logs/file_123.log", // Traceability
 assigned_to: user_uid // Optional
 </t>
-  </si>
-  <si>
-    <t>processing_queue</t>
-  </si>
-  <si>
-    <t>Auto-generated UID</t>
-  </si>
-  <si>
-    <t>Handles the "circuit breaker" and "Async" logic for uploaded files. Backend puts the jobs here; frontend watches the status.</t>
-  </si>
-  <si>
-    <t>audit_logs</t>
-  </si>
-  <si>
-    <t>Record of who did what</t>
-  </si>
-  <si>
-    <t>file_name: og_001.json,
- upload_timestamp: Timestamp,
- status: processing, // Options: pending, processing, completed, failed
-error_message: null, // Populated if parsing fails [Error Handling]
- user_id: user_uid</t>
-  </si>
-  <si>
-    <t>actor_id: user_uid",
-action: resolved_incident, // or "deleted_log", exported_report
- target_resource_id: incident_id,
- timestamp: Timestamp,
- metadata: { previous_status: new, new_status: resolved }</t>
   </si>
 </sst>
 </file>
@@ -177,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -190,9 +190,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -512,7 +509,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
@@ -526,7 +523,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -540,7 +537,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -553,8 +550,8 @@
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>18</v>
+      <c r="F7" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -568,7 +565,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -581,8 +578,8 @@
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>16</v>
+      <c r="F9" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="189" customHeight="1" x14ac:dyDescent="0.3">
@@ -590,13 +587,13 @@
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
